--- a/Work/Data/data.xlsx
+++ b/Work/Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16305" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>FirstName</t>
   </si>
@@ -101,6 +101,27 @@
   </si>
   <si>
     <t>Varsha</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin </t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -437,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -563,12 +584,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
